--- a/usuarios.xlsx
+++ b/usuarios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CRM NOTION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E93E8ACA-986C-4E4E-8175-3634760DDFE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD618999-2C18-4746-9E19-6B7D04DBC712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1500" windowWidth="17280" windowHeight="8880" xr2:uid="{207B9CD9-5E65-48C9-9BC5-3980A71EF383}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{207B9CD9-5E65-48C9-9BC5-3980A71EF383}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>USUARIO</t>
   </si>
@@ -56,9 +56,6 @@
     <t>admin</t>
   </si>
   <si>
-    <t>ivan</t>
-  </si>
-  <si>
     <t>Eduardo Lopez Cruz</t>
   </si>
   <si>
@@ -78,6 +75,15 @@
   </si>
   <si>
     <t>Cesar Rodriguez</t>
+  </si>
+  <si>
+    <t>Manrique</t>
+  </si>
+  <si>
+    <t>Nahia82</t>
+  </si>
+  <si>
+    <t>Aa123456</t>
   </si>
 </sst>
 </file>
@@ -461,7 +467,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -487,10 +493,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2">
-        <v>1234</v>
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -501,44 +507,44 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="B3">
-        <v>1234</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>1234</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
         <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>1234</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
